--- a/Assets/Data/Table/Enum/Setting.xlsx
+++ b/Assets/Data/Table/Enum/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E4CE4-C374-4D51-9BFD-2465C6EAADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E3BB0-68F9-410E-BA9D-0DCE0DF355B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>#기타 비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>Enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -497,192 +493,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D8FFD1-BC87-4624-BD96-AC6A96A8C717}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="1"/>
+    <col min="1" max="1" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="C12" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
